--- a/app/utils/sentfiles/factories.xlsx
+++ b/app/utils/sentfiles/factories.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -412,22 +412,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>factory1</t>
+          <t>factory</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>mohamed st</t>
+          <t xml:space="preserve">test </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12345</t>
+          <t>12345132</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>factory1</t>
+          <t>factory</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -437,197 +437,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>01203000</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>faaaaaaactory</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>asdasd</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>13513513</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>hamada</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>factory15@test.com</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>1315313</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>import</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>import</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>import</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>import</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>import@test.com</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>import</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>5</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>import2</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>import2</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>import2</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>import2</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>import2@test.com</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>import2</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>6</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>mahmoud</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>;aksd;kas;l</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>12313532123</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>mahmoud el3a2</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>mahmoud14zamalek@gmail.com</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>313131</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>7</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>bellal</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>asdsad</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>asdasw55</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Bellal</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>belalelmezain169@gmail.com</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>55131321</t>
+          <t>123215</t>
         </is>
       </c>
     </row>
